--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_Pierre_Rouquès_-_Les_Bluets/Hôpital_Pierre_Rouquès_-_Les_Bluets.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_Pierre_Rouquès_-_Les_Bluets/Hôpital_Pierre_Rouquès_-_Les_Bluets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Pierre_Rouqu%C3%A8s_-_Les_Bluets</t>
+          <t>Hôpital_Pierre_Rouquès_-_Les_Bluets</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Pierre-Rouquès - Les bluets, aussi connu sous le nom de maternité des Bluets, se trouve au 4 rue Lasson dans le 12e arrondissement de Paris, à proximité de l'hôpital Armand-Trousseau.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Pierre_Rouqu%C3%A8s_-_Les_Bluets</t>
+          <t>Hôpital_Pierre_Rouquès_-_Les_Bluets</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rue des Bluets
-À l'initiative de l'Union des syndicats CGT de la métallurgie de la région parisienne (USM-RP), un centre de santé est ouvert en 1937[1] au 9 rue des Bluets dans le 11e arrondissement de Paris, auquel s'ajoutent en 1947 une maternité et une annexe au 94 rue Jean-Pierre-Timbaud. Le film Les Métallos, commandé en 1938 par la fédération des travailleurs de la métallurgie, présente le fonctionnement de la polyclinique nouvellement ouverte, présentée comme un établissement à la pointe du progrès.
-En 1951, la « polyclinique des Bluets » est renommée centre de santé « Docteur Pierre-Rouquès », en hommage au chirurgien et militant communiste qui avait contribué à sa création[2].
-Dans les années 1950, la maternité fut pionnière pour l'ensemble des techniques dites d'accouchement sans douleur. Les premiers cours donnés en France aux futures accouchées y furent dispensés par les équipes du docteur Fernand Lamaze[3].
-Rue Lasson
-En 2007, le centre est rebaptisé « hôpital Pierre-Rouquès – Les Bluets » et est déplacé à son emplacement actuel, au 4 rue Lasson dans le 12e arrondissement de Paris. Il abrite, en plus de la maternité, un centre de planning familial et un centre de procréation médicalement assistée[1].
-L’établissement fait face à des difficultés financières depuis plusieurs années et la secrétaire générale de la CGT, Sophie Binet, apporte son soutien en 2023[1],[4].
+          <t>Rue des Bluets</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'initiative de l'Union des syndicats CGT de la métallurgie de la région parisienne (USM-RP), un centre de santé est ouvert en 1937 au 9 rue des Bluets dans le 11e arrondissement de Paris, auquel s'ajoutent en 1947 une maternité et une annexe au 94 rue Jean-Pierre-Timbaud. Le film Les Métallos, commandé en 1938 par la fédération des travailleurs de la métallurgie, présente le fonctionnement de la polyclinique nouvellement ouverte, présentée comme un établissement à la pointe du progrès.
+En 1951, la « polyclinique des Bluets » est renommée centre de santé « Docteur Pierre-Rouquès », en hommage au chirurgien et militant communiste qui avait contribué à sa création.
+Dans les années 1950, la maternité fut pionnière pour l'ensemble des techniques dites d'accouchement sans douleur. Les premiers cours donnés en France aux futures accouchées y furent dispensés par les équipes du docteur Fernand Lamaze.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_Pierre_Rouquès_-_Les_Bluets</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Pierre_Rouqu%C3%A8s_-_Les_Bluets</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rue Lasson</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, le centre est rebaptisé « hôpital Pierre-Rouquès – Les Bluets » et est déplacé à son emplacement actuel, au 4 rue Lasson dans le 12e arrondissement de Paris. Il abrite, en plus de la maternité, un centre de planning familial et un centre de procréation médicalement assistée.
+L’établissement fait face à des difficultés financières depuis plusieurs années et la secrétaire générale de la CGT, Sophie Binet, apporte son soutien en 2023,.
 </t>
         </is>
       </c>
